--- a/szeregi.xlsx
+++ b/szeregi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eos\STUDENTs$\335775\DOCUMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32DF2AC3-916E-4706-88EC-6E5A35D00723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{E5648A88-9470-43E9-AD5E-7319960BC20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D49B39DF-92BA-43AD-A959-E9860E13B9AD}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,16 @@
     </font>
     <font>
       <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -267,10 +277,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -820,7 +830,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,13 +870,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -920,10 +930,10 @@
         <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <f>G5*C4</f>
         <v>0.7265625</v>
       </c>
